--- a/user-data/oda-TR/oda-TR.xlsx
+++ b/user-data/oda-TR/oda-TR.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Description: Gross official development assistance from Turkey</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: NA</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
